--- a/csvTable/Output/Output.xlsx
+++ b/csvTable/Output/Output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>技能ID</t>
   </si>
@@ -34,7 +34,13 @@
     <t/>
   </si>
   <si>
-    <t>Wizard_1001LLJ_Hit-001 ,0.001</t>
+    <t>Archer_3000ATK_A_EFF-001||Archer_3000ATK_A_SFX-001</t>
+  </si>
+  <si>
+    <t>Archer_3000ATK_B_EFF-001,0.000||Archer_3000ATK_B_SFX-001,0.000</t>
+  </si>
+  <si>
+    <t>Archer_3000ATK_Hit</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -436,21 +442,41 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1001</v>
+        <v>3000</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>32000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
